--- a/data/trans_dic/P16A10-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.05796319459743225</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0780410033581823</v>
+        <v>0.07804100335818229</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0696352063507553</v>
+        <v>0.07053913970874945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03525958721042512</v>
+        <v>0.03682658930391845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04533670141141197</v>
+        <v>0.04457180290211629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05826400767611534</v>
+        <v>0.05636661668838614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07009004706427978</v>
+        <v>0.06933150846998867</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05387255132655852</v>
+        <v>0.0533955579516764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0469492966456055</v>
+        <v>0.04514007638881222</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06330533976082123</v>
+        <v>0.06258034599120629</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0742923839338549</v>
+        <v>0.075865463081759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04940328208927424</v>
+        <v>0.04940045084123322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04939818598594118</v>
+        <v>0.04901020632835531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06485788612550243</v>
+        <v>0.06539236114173196</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1159038154405141</v>
+        <v>0.1142394543065908</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06401863969969612</v>
+        <v>0.06412761259532807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07302454888285212</v>
+        <v>0.07145859849601491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1035959750106278</v>
+        <v>0.1022400048170991</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.107402064610498</v>
+        <v>0.1076136079822617</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08656801580811474</v>
+        <v>0.08327499764068476</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07528559975175127</v>
+        <v>0.07282611733551027</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0962927768784716</v>
+        <v>0.09559700733990605</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1034834663838647</v>
+        <v>0.1046006811123996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06960179874221963</v>
+        <v>0.06934200566348374</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06805974508885834</v>
+        <v>0.06825034961610654</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09092511865405643</v>
+        <v>0.09225772989306651</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04522064531198962</v>
+        <v>0.04494918757684659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03838255043866091</v>
+        <v>0.03771281226349286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04815404379260059</v>
+        <v>0.0479596214729617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05638429427685981</v>
+        <v>0.05724539285798907</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03637009190796529</v>
+        <v>0.03849239312722395</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03233843718552561</v>
+        <v>0.03231723353650325</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04107860507804793</v>
+        <v>0.04069737342243379</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05110806612954244</v>
+        <v>0.0499333208328873</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04489018803655286</v>
+        <v>0.04479090935169255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0368787591340261</v>
+        <v>0.03774220317905912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04736265435417009</v>
+        <v>0.04773436063470093</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05662294080689942</v>
+        <v>0.0561492733921032</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07304867002215916</v>
+        <v>0.07341781924374273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0673738166332823</v>
+        <v>0.0667330262666823</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08024649843100576</v>
+        <v>0.08007956882870154</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08841004055364127</v>
+        <v>0.0859273635632584</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06438702100565011</v>
+        <v>0.0641266293764501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05646556394654535</v>
+        <v>0.05730221824889836</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06992772425933683</v>
+        <v>0.07111850506944738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0714038933930719</v>
+        <v>0.0716850140606828</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06329406453188736</v>
+        <v>0.06369051943049935</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05569065348982007</v>
+        <v>0.05769249356641826</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06953606356679835</v>
+        <v>0.0707710723366257</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07530372032144636</v>
+        <v>0.07518809656379696</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05334755591912057</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0483715251837989</v>
+        <v>0.04837152518379891</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02496032747386555</v>
+        <v>0.02481749688201584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05033662057672045</v>
+        <v>0.05193056957236599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04931511031704248</v>
+        <v>0.05000304183590545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03542155957919341</v>
+        <v>0.03596944388892773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02246843932556917</v>
+        <v>0.02342601278435645</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02971833094934128</v>
+        <v>0.02902281497993563</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02652950928480589</v>
+        <v>0.02524307295417776</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0411934501326503</v>
+        <v>0.04100873964192463</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02627922266411564</v>
+        <v>0.02603763236516589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04343613079454892</v>
+        <v>0.0446008713838369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04297712539302465</v>
+        <v>0.04274695630917667</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04061858176390595</v>
+        <v>0.0415625501561849</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04595565486530802</v>
+        <v>0.04678515235535759</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08485283752951243</v>
+        <v>0.08529635621995413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08371025465206097</v>
+        <v>0.08573104671868199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05894905402840585</v>
+        <v>0.05793622741813283</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04431937728088848</v>
+        <v>0.04487780963882292</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05560540624954614</v>
+        <v>0.05979930169165989</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05950475105012128</v>
+        <v>0.05575908063023854</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06384081637113306</v>
+        <v>0.06545567811699005</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04151711803388614</v>
+        <v>0.04133836401375519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06621188681612306</v>
+        <v>0.06610518426820565</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0654638266425787</v>
+        <v>0.06680407511064385</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05762250930733655</v>
+        <v>0.05775378094124969</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05301599854160276</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0503916495502279</v>
+        <v>0.05039164955022792</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03668138278107219</v>
@@ -1105,7 +1105,7 @@
         <v>0.0571797451833178</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04035237446417558</v>
+        <v>0.04035237446417557</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02049195721321738</v>
+        <v>0.0196961011461523</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02630945296698129</v>
+        <v>0.02589038368661748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03422387868299879</v>
+        <v>0.03657218997502778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03928392370209741</v>
+        <v>0.03802375235944261</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01993181405068536</v>
+        <v>0.01999480215422549</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01113441430830578</v>
+        <v>0.01164577085544888</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04170991658723826</v>
+        <v>0.04018296724452932</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02110256267874241</v>
+        <v>0.02184950151344094</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02318306774610657</v>
+        <v>0.02394103597825847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02156041275716703</v>
+        <v>0.02233327054786761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04242733969005797</v>
+        <v>0.04334079747838648</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03328678836918321</v>
+        <v>0.03387451229957786</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05687340597968342</v>
+        <v>0.05466583731753746</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06570580239068718</v>
+        <v>0.0645505102179188</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07886567390571127</v>
+        <v>0.07860644503150283</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06586660336772791</v>
+        <v>0.06440012225766219</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06048809190180604</v>
+        <v>0.06224604733439038</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04287224585355577</v>
+        <v>0.04350115267577149</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09026509510502941</v>
+        <v>0.08778677160390104</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0392120521427406</v>
+        <v>0.03958189008176267</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05000914265861901</v>
+        <v>0.04998450707425111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04488212936458928</v>
+        <v>0.04818127744403047</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07482227448374444</v>
+        <v>0.07577117771174632</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04799276662319085</v>
+        <v>0.04824244455152427</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05970427963106785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05845531647882193</v>
+        <v>0.05845531647882192</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05331497501501374</v>
@@ -1241,7 +1241,7 @@
         <v>0.05671197565074969</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05575849944646449</v>
+        <v>0.05575849944646448</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04479893659886997</v>
+        <v>0.04501656565976563</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04590137472895134</v>
+        <v>0.04664656541101988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05205161056111679</v>
+        <v>0.05160484226294837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05220650905798337</v>
+        <v>0.05189349356706123</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04596578291165083</v>
+        <v>0.04667671434462191</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04114308923976692</v>
+        <v>0.04091708536486158</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04628136699588803</v>
+        <v>0.04656227379980465</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04745669829170757</v>
+        <v>0.04709924784067047</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04733785791614713</v>
+        <v>0.04763823407641636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04519219950842394</v>
+        <v>0.0454702188109477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05095974904274544</v>
+        <v>0.05133730307937415</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05092369285959228</v>
+        <v>0.05154605474896991</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05963510536285953</v>
+        <v>0.06074469999470955</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06179358692788311</v>
+        <v>0.06098620964894067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0685718279798002</v>
+        <v>0.0677944072652502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06636548099998613</v>
+        <v>0.06622912270781688</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0610833913927637</v>
+        <v>0.06291030977000114</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05581817817810766</v>
+        <v>0.0563613031457105</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06291627180242017</v>
+        <v>0.06316424115048179</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05963379634111989</v>
+        <v>0.05890289453046969</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05853618428178534</v>
+        <v>0.05886854500957472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05602906882533519</v>
+        <v>0.05610831511950294</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0623044475718335</v>
+        <v>0.0622371719336433</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06016243758544661</v>
+        <v>0.0605260310666307</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40677</v>
+        <v>41205</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36664</v>
+        <v>38293</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51140</v>
+        <v>50277</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29059</v>
+        <v>28112</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>64646</v>
+        <v>63947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60218</v>
+        <v>59685</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59136</v>
+        <v>56857</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39431</v>
+        <v>38979</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>111920</v>
+        <v>114289</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>106593</v>
+        <v>106587</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>117941</v>
+        <v>117015</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>72745</v>
+        <v>73345</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67704</v>
+        <v>66732</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66568</v>
+        <v>66681</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82371</v>
+        <v>80605</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51667</v>
+        <v>50991</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>99060</v>
+        <v>99256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96765</v>
+        <v>93084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>94827</v>
+        <v>91729</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59978</v>
+        <v>59544</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>155895</v>
+        <v>157578</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>150174</v>
+        <v>149613</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>162497</v>
+        <v>162952</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>101982</v>
+        <v>103477</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>48743</v>
+        <v>48450</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37436</v>
+        <v>36783</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43764</v>
+        <v>43587</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54137</v>
+        <v>54963</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38463</v>
+        <v>40707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>35319</v>
+        <v>35296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>41345</v>
+        <v>40961</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56998</v>
+        <v>55688</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>95860</v>
+        <v>95648</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>76248</v>
+        <v>78033</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>90714</v>
+        <v>91426</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>117514</v>
+        <v>116531</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78739</v>
+        <v>79137</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65713</v>
+        <v>65088</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72930</v>
+        <v>72778</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>84886</v>
+        <v>82502</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68092</v>
+        <v>67816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>61670</v>
+        <v>62584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70381</v>
+        <v>71579</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79633</v>
+        <v>79946</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>135160</v>
+        <v>136007</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115142</v>
+        <v>119280</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>133182</v>
+        <v>135548</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>156284</v>
+        <v>156044</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27970</v>
+        <v>27810</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>44507</v>
+        <v>45916</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40624</v>
+        <v>41190</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>37068</v>
+        <v>37641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22332</v>
+        <v>23284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25936</v>
+        <v>25329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20456</v>
+        <v>19464</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43156</v>
+        <v>42962</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>55568</v>
+        <v>55057</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>76314</v>
+        <v>78360</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>68541</v>
+        <v>68174</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>85060</v>
+        <v>87037</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51497</v>
+        <v>52426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75026</v>
+        <v>75418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68957</v>
+        <v>70622</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61689</v>
+        <v>60629</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44051</v>
+        <v>44606</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48529</v>
+        <v>52189</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>45882</v>
+        <v>42994</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>66882</v>
+        <v>68574</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>87789</v>
+        <v>87411</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>116329</v>
+        <v>116142</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>104403</v>
+        <v>106540</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>120669</v>
+        <v>120943</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9164</v>
+        <v>8808</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13234</v>
+        <v>13023</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17341</v>
+        <v>18531</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38338</v>
+        <v>37108</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6800</v>
+        <v>6821</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5020</v>
+        <v>5251</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20425</v>
+        <v>19678</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19175</v>
+        <v>19853</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18277</v>
+        <v>18874</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>20566</v>
+        <v>21304</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>42275</v>
+        <v>43185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>62731</v>
+        <v>63839</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25434</v>
+        <v>24447</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33052</v>
+        <v>32470</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39961</v>
+        <v>39830</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64281</v>
+        <v>62850</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20636</v>
+        <v>21236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19330</v>
+        <v>19613</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44203</v>
+        <v>42989</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35630</v>
+        <v>35966</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39425</v>
+        <v>39406</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42813</v>
+        <v>45960</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>74553</v>
+        <v>75498</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>90446</v>
+        <v>90916</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>144692</v>
+        <v>145395</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>156173</v>
+        <v>158709</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>175272</v>
+        <v>173768</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>181746</v>
+        <v>180656</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>152375</v>
+        <v>154732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>145383</v>
+        <v>144584</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>163225</v>
+        <v>164215</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>175324</v>
+        <v>174003</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>309816</v>
+        <v>311782</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>313451</v>
+        <v>315379</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>351320</v>
+        <v>353923</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>365412</v>
+        <v>369878</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>192610</v>
+        <v>196194</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>210245</v>
+        <v>207498</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>230901</v>
+        <v>228283</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>231037</v>
+        <v>230562</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>202490</v>
+        <v>208546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>197238</v>
+        <v>199157</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>221893</v>
+        <v>222767</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>220311</v>
+        <v>217611</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>383106</v>
+        <v>385282</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>388615</v>
+        <v>389165</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>429532</v>
+        <v>429068</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>431707</v>
+        <v>434316</v>
       </c>
     </row>
     <row r="24">
